--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200228.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200228.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\COVID-19\data\unchecked\manual_collect\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10730,8 +10730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -12259,7 +12259,7 @@
         <v>68</v>
       </c>
       <c r="K22" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>44</v>
@@ -12381,8 +12381,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="12">
-        <f>SUM(K2:K23)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M24" s="12">
         <f>SUM(M2:M23)</f>
